--- a/medicine/Sexualité et sexologie/Rapport_Hite/Rapport_Hite.xlsx
+++ b/medicine/Sexualité et sexologie/Rapport_Hite/Rapport_Hite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rapport Hite est une étude sur la sexualité humaine publiée en 1976 par la sexologue Shere Hite sur la base d'une étude statistique de grande ampleur menée de façon anonyme auprès des femmes américaines (et des hommes par la suite). Ce livre a fait scandale par ses conclusions très éloignées des représentations contemporaines concernant les pratiques sexuelles et leur fréquence dans la population.
 </t>
@@ -511,14 +523,14 @@
           <t>Contexte de l'étude</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette étude a été menée aux États-Unis en 1976, c'est-à-dire quelques années après le début de la révolution sexuelle. Cependant la société est encore très puritaine. De nombreuses idées fausses, qui seront battues en brèche par ce rapport, servent de fondements aux structures sexuelles et sociales du couple.
-Le rapport Hite fait scandale par ses conclusions très éloignées des représentations contemporaines concernant les pratiques sexuelles. En Europe, on a déduit que les hommes américains étaient de mauvais amants» et le premier «rapport Hite» a surtout plu aux femmes[1].
-La principale conclusion de Shere Hite, dont le livre a été publié à vingt millions d'exemplaires, en treize langues, est que «La plupart des femmes parviennent à l'orgasme toutes seules.»[1]. 
-Pratiques illicites
-Parmi les pratiques étudiées, beaucoup étaient illégales dans tous ou certains états.
-Représentations de la sexualité antérieures au rapport</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette étude a été menée aux États-Unis en 1976, c'est-à-dire quelques années après le début de la révolution sexuelle. Cependant la société est encore très puritaine. De nombreuses idées fausses, qui seront battues en brèche par ce rapport, servent de fondements aux structures sexuelles et sociales du couple.
+Le rapport Hite fait scandale par ses conclusions très éloignées des représentations contemporaines concernant les pratiques sexuelles. En Europe, on a déduit que les hommes américains étaient de mauvais amants» et le premier «rapport Hite» a surtout plu aux femmes.
+La principale conclusion de Shere Hite, dont le livre a été publié à vingt millions d'exemplaires, en treize langues, est que «La plupart des femmes parviennent à l'orgasme toutes seules.». 
+</t>
         </is>
       </c>
     </row>
@@ -543,14 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Méthodologie employée</t>
+          <t>Contexte de l'étude</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Enquête
-Établissement des statistiques
-Biais induits par la méthode</t>
+          <t>Pratiques illicites</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les pratiques étudiées, beaucoup étaient illégales dans tous ou certains états.
+</t>
         </is>
       </c>
     </row>
@@ -578,9 +595,11 @@
           <t>Conclusions les plus notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les thèmes abordés sont la masturbation et ce qu'en pensent les femmes, l'orgasme et son importance, le vécu du coït, la stimulation clitoridienne et ses pratiques associées, le saphisme, l'esclavage sexuel, la révolution sexuelle, la sexualité de la femme âgée[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les thèmes abordés sont la masturbation et ce qu'en pensent les femmes, l'orgasme et son importance, le vécu du coït, la stimulation clitoridienne et ses pratiques associées, le saphisme, l'esclavage sexuel, la révolution sexuelle, la sexualité de la femme âgée.
 </t>
         </is>
       </c>
@@ -609,12 +628,12 @@
           <t>Réception du rapport</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le rapport a suscité des réactions très diverses[3].
-De nombreux détracteurs
-Réception dans les milieux féministes et pro-sexe
-Réception dans la communauté scientifique</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rapport a suscité des réactions très diverses.
+</t>
         </is>
       </c>
     </row>
@@ -643,6 +662,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -668,7 +689,9 @@
           <t>Les différents rapports Hite</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Hite a publié plusieurs études sur la sexualité. Le terme rapport Hite fait en principe référence à l'ouvrage de 1976, mais certains de ses autres travaux sont également cités comme faisant partie du rapport Hite. Les publications qui forment le rapport Hite au sens large
 </t>
